--- a/biology/Zoologie/Falcileptoneta_higoensis/Falcileptoneta_higoensis.xlsx
+++ b/biology/Zoologie/Falcileptoneta_higoensis/Falcileptoneta_higoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Falcileptoneta higoensis est une espèce d'araignées aranéomorphes de la famille des Leptonetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Falcileptoneta higoensis est une espèce d'araignées aranéomorphes de la famille des Leptonetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon[1]. Elle se rencontre à Sagara, à Asagiri, à Kuma, à Itsuki et à Yatsushiro dans la préfecture de Kumamoto[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Kyūshū au Japon. Elle se rencontre à Sagara, à Asagiri, à Kuma, à Itsuki et à Yatsushiro dans la préfecture de Kumamoto.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 1,82 mm et la femelle paratype 1,56 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 1,82 mm et la femelle paratype 1,56 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été transféré du genre Leptoneta au genre Falcileptoneta par Irie et Ono en 2005[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été transféré du genre Leptoneta au genre Falcileptoneta par Irie et Ono en 2005.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de higo et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'ancienne province d'Higo.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Irie &amp; Ono, 2003 : Notes on spiders of the families Leptonetidae and Cybaeidae (Araneae) from Kumamoto Prefecture, Kyushu, Japan. Bulletin of the National Museum of Nature and Science, Tokyo, sér. A, vol. 29, p. 177-183 (texte original).</t>
         </is>
